--- a/data/pca/factorExposure/factorExposure_2016-08-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01029775179733398</v>
+        <v>0.0138050900931257</v>
       </c>
       <c r="C2">
-        <v>0.0537695371272228</v>
+        <v>0.04328369808138854</v>
       </c>
       <c r="D2">
-        <v>0.03629074469370928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06456169596670515</v>
+      </c>
+      <c r="E2">
+        <v>-0.05250620643463894</v>
+      </c>
+      <c r="F2">
+        <v>-0.08120574504863622</v>
+      </c>
+      <c r="G2">
+        <v>0.03513601412767822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05899502214590517</v>
+        <v>0.03067334083906314</v>
       </c>
       <c r="C3">
-        <v>0.09132231130254033</v>
+        <v>0.08277846653857594</v>
       </c>
       <c r="D3">
-        <v>0.08547654140225759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09135801161535834</v>
+      </c>
+      <c r="E3">
+        <v>-0.06192483595336853</v>
+      </c>
+      <c r="F3">
+        <v>-0.0118004051966506</v>
+      </c>
+      <c r="G3">
+        <v>-0.0436438151879643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06654499024736076</v>
+        <v>0.05798723314259375</v>
       </c>
       <c r="C4">
-        <v>0.05771915997421314</v>
+        <v>0.06602377385634331</v>
       </c>
       <c r="D4">
-        <v>0.02378859307229373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05840517717617581</v>
+      </c>
+      <c r="E4">
+        <v>-0.05044512146021288</v>
+      </c>
+      <c r="F4">
+        <v>-0.08849608793695349</v>
+      </c>
+      <c r="G4">
+        <v>-0.03710885346109656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04192420098279417</v>
+        <v>0.03538955382849526</v>
       </c>
       <c r="C6">
-        <v>0.03232482591686477</v>
+        <v>0.03153377716535054</v>
       </c>
       <c r="D6">
-        <v>0.02892297652701106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06713337058131315</v>
+      </c>
+      <c r="E6">
+        <v>-0.05872086619263733</v>
+      </c>
+      <c r="F6">
+        <v>-0.0710484560709195</v>
+      </c>
+      <c r="G6">
+        <v>-0.02168117968891827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0209313983904488</v>
+        <v>0.0193453322857581</v>
       </c>
       <c r="C7">
-        <v>0.04133381491955813</v>
+        <v>0.03847364228631778</v>
       </c>
       <c r="D7">
-        <v>-0.004774531464445354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03711797434932262</v>
+      </c>
+      <c r="E7">
+        <v>-0.03215054742038676</v>
+      </c>
+      <c r="F7">
+        <v>-0.1077862069083234</v>
+      </c>
+      <c r="G7">
+        <v>-0.005695213940201789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001249568531315273</v>
+        <v>0.003266097758795208</v>
       </c>
       <c r="C8">
-        <v>0.02639579468659157</v>
+        <v>0.0291213618461843</v>
       </c>
       <c r="D8">
-        <v>0.0325777502869939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03554788361122122</v>
+      </c>
+      <c r="E8">
+        <v>-0.04137939518886666</v>
+      </c>
+      <c r="F8">
+        <v>-0.05021501104187714</v>
+      </c>
+      <c r="G8">
+        <v>-0.01104066237556528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03581405286489404</v>
+        <v>0.03656183915807253</v>
       </c>
       <c r="C9">
-        <v>0.04370215158913997</v>
+        <v>0.05273487131488</v>
       </c>
       <c r="D9">
-        <v>0.01286271165363653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04417046320250274</v>
+      </c>
+      <c r="E9">
+        <v>-0.04258554913394021</v>
+      </c>
+      <c r="F9">
+        <v>-0.09215381890734571</v>
+      </c>
+      <c r="G9">
+        <v>-0.02085892966199551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06420294617237961</v>
+        <v>0.09810520597394236</v>
       </c>
       <c r="C10">
-        <v>-0.1956874987196096</v>
+        <v>-0.1951852317220779</v>
       </c>
       <c r="D10">
-        <v>0.002551344459469754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001189602922232143</v>
+      </c>
+      <c r="E10">
+        <v>-0.0457458594117969</v>
+      </c>
+      <c r="F10">
+        <v>-0.04097122931629856</v>
+      </c>
+      <c r="G10">
+        <v>-0.008120721484470813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04121942930767512</v>
+        <v>0.03647564748168309</v>
       </c>
       <c r="C11">
-        <v>0.0542714159872958</v>
+        <v>0.05114945373062493</v>
       </c>
       <c r="D11">
-        <v>0.008415426561154241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03400189199529413</v>
+      </c>
+      <c r="E11">
+        <v>-0.006126889939984912</v>
+      </c>
+      <c r="F11">
+        <v>-0.06657597765859657</v>
+      </c>
+      <c r="G11">
+        <v>-0.01323095733345189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04159825408786075</v>
+        <v>0.03739769452850494</v>
       </c>
       <c r="C12">
-        <v>0.04555188597801696</v>
+        <v>0.04704737671634019</v>
       </c>
       <c r="D12">
-        <v>0.0007444818198570646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02556544262414553</v>
+      </c>
+      <c r="E12">
+        <v>-0.01461408996207943</v>
+      </c>
+      <c r="F12">
+        <v>-0.0698983316729478</v>
+      </c>
+      <c r="G12">
+        <v>-0.009793391116803645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01609567277004157</v>
+        <v>0.01241964789512297</v>
       </c>
       <c r="C13">
-        <v>0.04311637133365222</v>
+        <v>0.04239704204515635</v>
       </c>
       <c r="D13">
-        <v>0.01763808766069574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06128423854471643</v>
+      </c>
+      <c r="E13">
+        <v>-0.06208749577113328</v>
+      </c>
+      <c r="F13">
+        <v>-0.1139991930638273</v>
+      </c>
+      <c r="G13">
+        <v>-0.01772017770833758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007383994578029651</v>
+        <v>0.005085522457658217</v>
       </c>
       <c r="C14">
-        <v>0.03377663289311904</v>
+        <v>0.03194437167421864</v>
       </c>
       <c r="D14">
-        <v>-0.01500892608466632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02622733839480977</v>
+      </c>
+      <c r="E14">
+        <v>-0.02656460814542395</v>
+      </c>
+      <c r="F14">
+        <v>-0.09749007602044026</v>
+      </c>
+      <c r="G14">
+        <v>0.01012503668608643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001175826017922059</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003280907557412839</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004511475591872672</v>
+      </c>
+      <c r="E15">
+        <v>0.0001015571054422043</v>
+      </c>
+      <c r="F15">
+        <v>-0.003021855608862217</v>
+      </c>
+      <c r="G15">
+        <v>0.00103134243266937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03643416300461564</v>
+        <v>0.03404698660095547</v>
       </c>
       <c r="C16">
-        <v>0.04100751864321031</v>
+        <v>0.04505664171739363</v>
       </c>
       <c r="D16">
-        <v>0.007132793178010994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02819732189563825</v>
+      </c>
+      <c r="E16">
+        <v>-0.02016286214989858</v>
+      </c>
+      <c r="F16">
+        <v>-0.07098012462056084</v>
+      </c>
+      <c r="G16">
+        <v>0.0005011851731014929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02507842641115744</v>
+        <v>0.0165869304392709</v>
       </c>
       <c r="C19">
-        <v>0.06073334610503372</v>
+        <v>0.05094392782031341</v>
       </c>
       <c r="D19">
-        <v>0.07253794401987949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09479783129309127</v>
+      </c>
+      <c r="E19">
+        <v>-0.08162843368269096</v>
+      </c>
+      <c r="F19">
+        <v>-0.09138045432942626</v>
+      </c>
+      <c r="G19">
+        <v>0.02343790024022124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01677694489432453</v>
+        <v>0.0135872019355412</v>
       </c>
       <c r="C20">
-        <v>0.04412986542824731</v>
+        <v>0.04110813877636593</v>
       </c>
       <c r="D20">
-        <v>0.01812328858974753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03978073397191191</v>
+      </c>
+      <c r="E20">
+        <v>-0.05644135056893403</v>
+      </c>
+      <c r="F20">
+        <v>-0.08923435187065293</v>
+      </c>
+      <c r="G20">
+        <v>-0.00355329040895578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01088637425059242</v>
+        <v>0.009146198445051662</v>
       </c>
       <c r="C21">
-        <v>0.04563595068168421</v>
+        <v>0.04499421435481652</v>
       </c>
       <c r="D21">
-        <v>0.031856778064952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06719900138129456</v>
+      </c>
+      <c r="E21">
+        <v>-0.06922697377535721</v>
+      </c>
+      <c r="F21">
+        <v>-0.135704022539883</v>
+      </c>
+      <c r="G21">
+        <v>-0.005144562251553473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001934232547006995</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02305801640260367</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03559137645459886</v>
+      </c>
+      <c r="E22">
+        <v>-0.01959273290141632</v>
+      </c>
+      <c r="F22">
+        <v>-0.02145765295387119</v>
+      </c>
+      <c r="G22">
+        <v>-0.03848625204697498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002002435045694835</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02318124637409862</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0352767351824341</v>
+      </c>
+      <c r="E23">
+        <v>-0.01987338068829334</v>
+      </c>
+      <c r="F23">
+        <v>-0.02133701199573491</v>
+      </c>
+      <c r="G23">
+        <v>-0.03869196784245426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03322837488362818</v>
+        <v>0.03374910829796648</v>
       </c>
       <c r="C24">
-        <v>0.04690572103208984</v>
+        <v>0.05304517529958695</v>
       </c>
       <c r="D24">
-        <v>0.004551748649665936</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02699979183862923</v>
+      </c>
+      <c r="E24">
+        <v>-0.01743300587841775</v>
+      </c>
+      <c r="F24">
+        <v>-0.07924972574235475</v>
+      </c>
+      <c r="G24">
+        <v>-0.006932763974621618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04771845511727836</v>
+        <v>0.04414656929568749</v>
       </c>
       <c r="C25">
-        <v>0.05653286117352472</v>
+        <v>0.05602143486225344</v>
       </c>
       <c r="D25">
-        <v>-0.00677669245552832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02481217554114762</v>
+      </c>
+      <c r="E25">
+        <v>-0.01177895900448843</v>
+      </c>
+      <c r="F25">
+        <v>-0.08063949651210806</v>
+      </c>
+      <c r="G25">
+        <v>-0.02326011070623368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01516331179074238</v>
+        <v>0.01388108779408955</v>
       </c>
       <c r="C26">
-        <v>0.01691748193314872</v>
+        <v>0.01680988421966077</v>
       </c>
       <c r="D26">
-        <v>0.001053804839767802</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02603550508360394</v>
+      </c>
+      <c r="E26">
+        <v>-0.02864453813133515</v>
+      </c>
+      <c r="F26">
+        <v>-0.07473445086603195</v>
+      </c>
+      <c r="G26">
+        <v>0.0150502414791437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07535156647952353</v>
+        <v>0.1323498368655254</v>
       </c>
       <c r="C28">
-        <v>-0.2307431271627151</v>
+        <v>-0.2458120163364109</v>
       </c>
       <c r="D28">
-        <v>-0.003218337712222282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01689553448321327</v>
+      </c>
+      <c r="E28">
+        <v>-0.04682004075245794</v>
+      </c>
+      <c r="F28">
+        <v>-0.05713024042477868</v>
+      </c>
+      <c r="G28">
+        <v>-0.02101587235539039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00920555214192389</v>
+        <v>0.006032710018309385</v>
       </c>
       <c r="C29">
-        <v>0.02643569386862638</v>
+        <v>0.02733272751572375</v>
       </c>
       <c r="D29">
-        <v>-0.01697535151120984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02093093188370095</v>
+      </c>
+      <c r="E29">
+        <v>-0.02830148269400666</v>
+      </c>
+      <c r="F29">
+        <v>-0.08958346067548692</v>
+      </c>
+      <c r="G29">
+        <v>-0.002304685846964755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0539720950993717</v>
+        <v>0.04221664042717886</v>
       </c>
       <c r="C30">
-        <v>0.05642523869675861</v>
+        <v>0.06476901966554717</v>
       </c>
       <c r="D30">
-        <v>0.05681561588362135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1081052696570559</v>
+      </c>
+      <c r="E30">
+        <v>-0.04274063395449657</v>
+      </c>
+      <c r="F30">
+        <v>-0.1046284329023193</v>
+      </c>
+      <c r="G30">
+        <v>0.01562671970928496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05424070865627244</v>
+        <v>0.0550460601003196</v>
       </c>
       <c r="C31">
-        <v>0.03193303548089941</v>
+        <v>0.05416790890919635</v>
       </c>
       <c r="D31">
-        <v>-0.01994195356390533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01056810521797873</v>
+      </c>
+      <c r="E31">
+        <v>-0.04785280808017191</v>
+      </c>
+      <c r="F31">
+        <v>-0.08290547444241249</v>
+      </c>
+      <c r="G31">
+        <v>-0.04661848794137986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00964984436105863</v>
+        <v>0.005000297176026768</v>
       </c>
       <c r="C32">
-        <v>0.04341259662672269</v>
+        <v>0.03342211236792657</v>
       </c>
       <c r="D32">
-        <v>0.02921304129069567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05004522017277591</v>
+      </c>
+      <c r="E32">
+        <v>-0.02393562542915366</v>
+      </c>
+      <c r="F32">
+        <v>-0.07437837632415202</v>
+      </c>
+      <c r="G32">
+        <v>0.01221899765296966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02826994983537067</v>
+        <v>0.02464843400022734</v>
       </c>
       <c r="C33">
-        <v>0.05884366314982432</v>
+        <v>0.05495567143518112</v>
       </c>
       <c r="D33">
-        <v>0.03459625418600541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07912655348266676</v>
+      </c>
+      <c r="E33">
+        <v>-0.05134604672340438</v>
+      </c>
+      <c r="F33">
+        <v>-0.1295915223194299</v>
+      </c>
+      <c r="G33">
+        <v>-0.01733039913367543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04660475700132954</v>
+        <v>0.04147069817345189</v>
       </c>
       <c r="C34">
-        <v>0.05889768938093411</v>
+        <v>0.06339516837169309</v>
       </c>
       <c r="D34">
-        <v>-0.0004406152468435193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.034798366155034</v>
+      </c>
+      <c r="E34">
+        <v>0.007079432996779472</v>
+      </c>
+      <c r="F34">
+        <v>-0.07710872384034323</v>
+      </c>
+      <c r="G34">
+        <v>-0.009228709899727468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0114871171825659</v>
+        <v>0.01297868892163668</v>
       </c>
       <c r="C36">
-        <v>0.01671022674398188</v>
+        <v>0.01250513047350866</v>
       </c>
       <c r="D36">
-        <v>0.0003594650208646463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02718406833730292</v>
+      </c>
+      <c r="E36">
+        <v>-0.03437559291147316</v>
+      </c>
+      <c r="F36">
+        <v>-0.08221144838119367</v>
+      </c>
+      <c r="G36">
+        <v>-0.00767265470106012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02997476719699671</v>
+        <v>0.02433117562722171</v>
       </c>
       <c r="C38">
-        <v>0.02685547585034666</v>
+        <v>0.02460497946454892</v>
       </c>
       <c r="D38">
-        <v>-0.001931669061462272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02613112053950642</v>
+      </c>
+      <c r="E38">
+        <v>-0.03368723973043407</v>
+      </c>
+      <c r="F38">
+        <v>-0.06916603963270306</v>
+      </c>
+      <c r="G38">
+        <v>-0.002810623506217407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04358409873308944</v>
+        <v>0.0396320031616296</v>
       </c>
       <c r="C39">
-        <v>0.0700204171710751</v>
+        <v>0.06806399886926977</v>
       </c>
       <c r="D39">
-        <v>0.02197516814478963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05331855239285463</v>
+      </c>
+      <c r="E39">
+        <v>-0.01970688491275303</v>
+      </c>
+      <c r="F39">
+        <v>-0.09158557277196758</v>
+      </c>
+      <c r="G39">
+        <v>0.01668812297902273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01518269552446625</v>
+        <v>0.01569742205684457</v>
       </c>
       <c r="C40">
-        <v>0.0361484408347817</v>
+        <v>0.04062195893354222</v>
       </c>
       <c r="D40">
-        <v>0.03268709685213848</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03830103158278259</v>
+      </c>
+      <c r="E40">
+        <v>-0.0698281672772836</v>
+      </c>
+      <c r="F40">
+        <v>-0.08853426517731457</v>
+      </c>
+      <c r="G40">
+        <v>-0.0435377963767016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01384610198639623</v>
+        <v>0.01750092562011525</v>
       </c>
       <c r="C41">
-        <v>0.007998901079929645</v>
+        <v>0.006653835476938862</v>
       </c>
       <c r="D41">
-        <v>-0.004047300152845822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01569069083130718</v>
+      </c>
+      <c r="E41">
+        <v>-0.03800513371488121</v>
+      </c>
+      <c r="F41">
+        <v>-0.07125200750165042</v>
+      </c>
+      <c r="G41">
+        <v>-0.001720478259895576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0008004595817505426</v>
+        <v>0.0006450620678210194</v>
       </c>
       <c r="C42">
-        <v>0.006320646223341533</v>
+        <v>0.003375577415396513</v>
       </c>
       <c r="D42">
-        <v>0.008457488599697801</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001727636511678071</v>
+      </c>
+      <c r="E42">
+        <v>-0.006987884279709428</v>
+      </c>
+      <c r="F42">
+        <v>0.006028747868470225</v>
+      </c>
+      <c r="G42">
+        <v>0.001382723443376087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03375766320457479</v>
+        <v>0.02882563014713377</v>
       </c>
       <c r="C43">
-        <v>0.0222645176981339</v>
+        <v>0.02179518903747107</v>
       </c>
       <c r="D43">
-        <v>0.01202792034170471</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03941377253509835</v>
+      </c>
+      <c r="E43">
+        <v>-0.04384692136257724</v>
+      </c>
+      <c r="F43">
+        <v>-0.08557553414864705</v>
+      </c>
+      <c r="G43">
+        <v>-0.02179639467944079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02036502667758476</v>
+        <v>0.01412306109208119</v>
       </c>
       <c r="C44">
-        <v>0.05705289290321872</v>
+        <v>0.05305526529956735</v>
       </c>
       <c r="D44">
-        <v>0.01376704890935902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03947294509767213</v>
+      </c>
+      <c r="E44">
+        <v>-0.05701742242289271</v>
+      </c>
+      <c r="F44">
+        <v>-0.08951407329442611</v>
+      </c>
+      <c r="G44">
+        <v>0.00345713923466585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.003320928957924652</v>
+        <v>0.007565294606932361</v>
       </c>
       <c r="C46">
-        <v>0.0232907550062346</v>
+        <v>0.02558772752426643</v>
       </c>
       <c r="D46">
-        <v>-0.02216130917425365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01199246299908777</v>
+      </c>
+      <c r="E46">
+        <v>-0.03323958317381501</v>
+      </c>
+      <c r="F46">
+        <v>-0.1037469939978327</v>
+      </c>
+      <c r="G46">
+        <v>0.002616173485567904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08497756411531614</v>
+        <v>0.08776755827724948</v>
       </c>
       <c r="C47">
-        <v>0.06665681599494236</v>
+        <v>0.07875625286942618</v>
       </c>
       <c r="D47">
-        <v>-0.01636920483126376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01765193647103724</v>
+      </c>
+      <c r="E47">
+        <v>-0.05364845018903661</v>
+      </c>
+      <c r="F47">
+        <v>-0.0808417367563837</v>
+      </c>
+      <c r="G47">
+        <v>-0.04884973005407692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01892218049821185</v>
+        <v>0.01578930948723552</v>
       </c>
       <c r="C48">
-        <v>0.01264837678783915</v>
+        <v>0.01774767819879112</v>
       </c>
       <c r="D48">
-        <v>-0.01028960488214042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01702751605456747</v>
+      </c>
+      <c r="E48">
+        <v>-0.04524879757699449</v>
+      </c>
+      <c r="F48">
+        <v>-0.09657612556387689</v>
+      </c>
+      <c r="G48">
+        <v>-0.006981662038634191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0864408793997876</v>
+        <v>0.07151088786786994</v>
       </c>
       <c r="C50">
-        <v>0.06537393623632873</v>
+        <v>0.07073037743858181</v>
       </c>
       <c r="D50">
-        <v>-0.02606435521706308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006229473790007053</v>
+      </c>
+      <c r="E50">
+        <v>-0.05169400808301133</v>
+      </c>
+      <c r="F50">
+        <v>-0.07388449935172525</v>
+      </c>
+      <c r="G50">
+        <v>-0.07191986859805985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01398250094207096</v>
+        <v>0.01082365806327529</v>
       </c>
       <c r="C51">
-        <v>0.04779309257084191</v>
+        <v>0.03397620460759811</v>
       </c>
       <c r="D51">
-        <v>0.0133824917343481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04806475047520899</v>
+      </c>
+      <c r="E51">
+        <v>-0.02198712817836721</v>
+      </c>
+      <c r="F51">
+        <v>-0.08306184195393504</v>
+      </c>
+      <c r="G51">
+        <v>0.02004880764858515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08696080232165131</v>
+        <v>0.09411715580603205</v>
       </c>
       <c r="C53">
-        <v>0.0661326250650299</v>
+        <v>0.0858932857547319</v>
       </c>
       <c r="D53">
-        <v>-0.03380395452940859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03989857430379867</v>
+      </c>
+      <c r="E53">
+        <v>-0.05071078378943732</v>
+      </c>
+      <c r="F53">
+        <v>-0.09058865552890905</v>
+      </c>
+      <c r="G53">
+        <v>-0.06009756138432709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03274456492245353</v>
+        <v>0.02805016155187052</v>
       </c>
       <c r="C54">
-        <v>0.02013986357607178</v>
+        <v>0.02690548538274451</v>
       </c>
       <c r="D54">
-        <v>0.0003243259351307532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03120731420814413</v>
+      </c>
+      <c r="E54">
+        <v>-0.04086499047265216</v>
+      </c>
+      <c r="F54">
+        <v>-0.09682960868555111</v>
+      </c>
+      <c r="G54">
+        <v>-0.003194610531465806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0783406175950789</v>
+        <v>0.08526490424136027</v>
       </c>
       <c r="C55">
-        <v>0.05647088037598001</v>
+        <v>0.06950951742734723</v>
       </c>
       <c r="D55">
-        <v>-0.03785305656660976</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04717504851775896</v>
+      </c>
+      <c r="E55">
+        <v>-0.04222459736221918</v>
+      </c>
+      <c r="F55">
+        <v>-0.06544036636225598</v>
+      </c>
+      <c r="G55">
+        <v>-0.04971839547214028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1540635664745923</v>
+        <v>0.1468665887367169</v>
       </c>
       <c r="C56">
-        <v>0.08275762845839708</v>
+        <v>0.1035131120987632</v>
       </c>
       <c r="D56">
-        <v>-0.04112389051389383</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05011014571481431</v>
+      </c>
+      <c r="E56">
+        <v>-0.04636424209344226</v>
+      </c>
+      <c r="F56">
+        <v>-0.05075715147644492</v>
+      </c>
+      <c r="G56">
+        <v>-0.05710908482463826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001931728765597308</v>
+        <v>0.0007129172214582992</v>
       </c>
       <c r="C57">
-        <v>0.001219019164420617</v>
+        <v>0.0009429409708640273</v>
       </c>
       <c r="D57">
-        <v>0.01889002634450469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01655848118124565</v>
+      </c>
+      <c r="E57">
+        <v>-0.008199903927726333</v>
+      </c>
+      <c r="F57">
+        <v>-0.0112603791281277</v>
+      </c>
+      <c r="G57">
+        <v>-0.005737008277455879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.07244271776333795</v>
+        <v>0.02826285390209573</v>
       </c>
       <c r="C58">
-        <v>0.01435084999080684</v>
+        <v>0.04097086829180795</v>
       </c>
       <c r="D58">
-        <v>0.9003219847442163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4735368848017458</v>
+      </c>
+      <c r="E58">
+        <v>-0.7011310016165352</v>
+      </c>
+      <c r="F58">
+        <v>0.4521601231021858</v>
+      </c>
+      <c r="G58">
+        <v>0.03433855463646796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1226345526876401</v>
+        <v>0.143724756909116</v>
       </c>
       <c r="C59">
-        <v>-0.2090898033309795</v>
+        <v>-0.1874222977997536</v>
       </c>
       <c r="D59">
-        <v>0.01690947638532021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03171148105456984</v>
+      </c>
+      <c r="E59">
+        <v>-0.0258803174372002</v>
+      </c>
+      <c r="F59">
+        <v>-0.02248677986247657</v>
+      </c>
+      <c r="G59">
+        <v>0.02816150233205768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3210698533321228</v>
+        <v>0.2844321814683698</v>
       </c>
       <c r="C60">
-        <v>0.08164862396888199</v>
+        <v>0.09487482831699143</v>
       </c>
       <c r="D60">
-        <v>0.0338005238013747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2070344249959964</v>
+      </c>
+      <c r="E60">
+        <v>0.2699979324149132</v>
+      </c>
+      <c r="F60">
+        <v>0.1155529626225529</v>
+      </c>
+      <c r="G60">
+        <v>-0.04644845020914187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04257995499394188</v>
+        <v>0.04103228372649805</v>
       </c>
       <c r="C61">
-        <v>0.06233268117229254</v>
+        <v>0.06186331734521815</v>
       </c>
       <c r="D61">
-        <v>0.01210595327368149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04589533137710058</v>
+      </c>
+      <c r="E61">
+        <v>-0.02237076130424714</v>
+      </c>
+      <c r="F61">
+        <v>-0.08285890673564736</v>
+      </c>
+      <c r="G61">
+        <v>-0.009590137569287642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01658969292122795</v>
+        <v>0.01530671408442286</v>
       </c>
       <c r="C63">
-        <v>0.03517785094461005</v>
+        <v>0.0326096442980886</v>
       </c>
       <c r="D63">
-        <v>-0.004169999348273405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02291389373330724</v>
+      </c>
+      <c r="E63">
+        <v>-0.03740925412045049</v>
+      </c>
+      <c r="F63">
+        <v>-0.07817003016588796</v>
+      </c>
+      <c r="G63">
+        <v>-0.0264207935042271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05250904884464029</v>
+        <v>0.05591122613430822</v>
       </c>
       <c r="C64">
-        <v>0.03426361137850406</v>
+        <v>0.0537411400543335</v>
       </c>
       <c r="D64">
-        <v>-0.01026134506384359</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006277054377631671</v>
+      </c>
+      <c r="E64">
+        <v>-0.0197345736941064</v>
+      </c>
+      <c r="F64">
+        <v>-0.08617304381043919</v>
+      </c>
+      <c r="G64">
+        <v>-0.007564873723964807</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09669531923682317</v>
+        <v>0.06968354828842432</v>
       </c>
       <c r="C65">
-        <v>0.02076378621821372</v>
+        <v>0.03199705260646266</v>
       </c>
       <c r="D65">
-        <v>0.03971174245462519</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08692551860950552</v>
+      </c>
+      <c r="E65">
+        <v>-0.03287740812617515</v>
+      </c>
+      <c r="F65">
+        <v>-0.01908694849097852</v>
+      </c>
+      <c r="G65">
+        <v>-0.002788608012882794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06675021319860609</v>
+        <v>0.05264254631973816</v>
       </c>
       <c r="C66">
-        <v>0.09961945182724152</v>
+        <v>0.09022121315968203</v>
       </c>
       <c r="D66">
-        <v>0.0341859871122215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08049214340431038</v>
+      </c>
+      <c r="E66">
+        <v>-0.02301454260013461</v>
+      </c>
+      <c r="F66">
+        <v>-0.09400683133949875</v>
+      </c>
+      <c r="G66">
+        <v>-0.0008985598618268731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05179210105173029</v>
+        <v>0.0465012521371785</v>
       </c>
       <c r="C67">
-        <v>0.03116627210483899</v>
+        <v>0.03021756071375633</v>
       </c>
       <c r="D67">
-        <v>-0.007046085985859242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01208995527817719</v>
+      </c>
+      <c r="E67">
+        <v>-0.01651368708931884</v>
+      </c>
+      <c r="F67">
+        <v>-0.05417085707583318</v>
+      </c>
+      <c r="G67">
+        <v>-0.009356794486760963</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1009817517445624</v>
+        <v>0.1483441221039709</v>
       </c>
       <c r="C68">
-        <v>-0.2939413110353011</v>
+        <v>-0.2533103120592728</v>
       </c>
       <c r="D68">
-        <v>-0.003824636635081739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0182071347169632</v>
+      </c>
+      <c r="E68">
+        <v>-0.04146054391195333</v>
+      </c>
+      <c r="F68">
+        <v>-0.01920868484464943</v>
+      </c>
+      <c r="G68">
+        <v>-0.01196744245915653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09167544218369941</v>
+        <v>0.08766569145111093</v>
       </c>
       <c r="C69">
-        <v>0.0639279584271467</v>
+        <v>0.08494618644303001</v>
       </c>
       <c r="D69">
-        <v>-0.04145169484508236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01217044210995868</v>
+      </c>
+      <c r="E69">
+        <v>-0.03078428332217257</v>
+      </c>
+      <c r="F69">
+        <v>-0.09734445835662631</v>
+      </c>
+      <c r="G69">
+        <v>-0.02543496259387951</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1006067616395966</v>
+        <v>0.1403489199179119</v>
       </c>
       <c r="C71">
-        <v>-0.2547375366982352</v>
+        <v>-0.2339384162291674</v>
       </c>
       <c r="D71">
-        <v>0.02523063853246706</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0157858641778322</v>
+      </c>
+      <c r="E71">
+        <v>-0.06239576890589744</v>
+      </c>
+      <c r="F71">
+        <v>-0.0582626509394651</v>
+      </c>
+      <c r="G71">
+        <v>-0.03393855369158091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08946742816286438</v>
+        <v>0.09710946494259723</v>
       </c>
       <c r="C72">
-        <v>0.04520901659902653</v>
+        <v>0.05531896635532695</v>
       </c>
       <c r="D72">
-        <v>-0.008997556653788086</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02095468436214525</v>
+      </c>
+      <c r="E72">
+        <v>-0.009012846480620474</v>
+      </c>
+      <c r="F72">
+        <v>-0.08110225841543087</v>
+      </c>
+      <c r="G72">
+        <v>-0.02520687999564788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4337576808732957</v>
+        <v>0.3474020105733949</v>
       </c>
       <c r="C73">
-        <v>0.04346286497166833</v>
+        <v>0.07534271691358739</v>
       </c>
       <c r="D73">
-        <v>0.1590472931781222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4430816169151069</v>
+      </c>
+      <c r="E73">
+        <v>0.4738429881879481</v>
+      </c>
+      <c r="F73">
+        <v>0.2936713101709479</v>
+      </c>
+      <c r="G73">
+        <v>-0.1057724833114963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1178223455622587</v>
+        <v>0.1120730319432626</v>
       </c>
       <c r="C74">
-        <v>0.09973746565393844</v>
+        <v>0.09853969993118201</v>
       </c>
       <c r="D74">
-        <v>-0.01531910294287334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03105042221783041</v>
+      </c>
+      <c r="E74">
+        <v>-0.06054911566429959</v>
+      </c>
+      <c r="F74">
+        <v>-0.05607536867036714</v>
+      </c>
+      <c r="G74">
+        <v>-0.07173223074687174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.253707334149682</v>
+        <v>0.2583418216596754</v>
       </c>
       <c r="C75">
-        <v>0.09829709421487946</v>
+        <v>0.1324796776760481</v>
       </c>
       <c r="D75">
-        <v>-0.06319049261290967</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1294522415229437</v>
+      </c>
+      <c r="E75">
+        <v>-0.07350419100230832</v>
+      </c>
+      <c r="F75">
+        <v>-0.01530210231550803</v>
+      </c>
+      <c r="G75">
+        <v>-0.07533503503988309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1188474200497045</v>
+        <v>0.1293515987007982</v>
       </c>
       <c r="C76">
-        <v>0.08362400865679204</v>
+        <v>0.1007771314274655</v>
       </c>
       <c r="D76">
-        <v>-0.03368855545181244</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05842767703682521</v>
+      </c>
+      <c r="E76">
+        <v>-0.06539631311332283</v>
+      </c>
+      <c r="F76">
+        <v>-0.0711267659128787</v>
+      </c>
+      <c r="G76">
+        <v>-0.05985552063130035</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0805786976861944</v>
+        <v>0.06285874028062316</v>
       </c>
       <c r="C77">
-        <v>0.05466950994524628</v>
+        <v>0.06886622163520893</v>
       </c>
       <c r="D77">
-        <v>0.05144176779453679</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06359807666993036</v>
+      </c>
+      <c r="E77">
+        <v>-0.06830938120655981</v>
+      </c>
+      <c r="F77">
+        <v>-0.118704206244818</v>
+      </c>
+      <c r="G77">
+        <v>0.1403863682474131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04939526026673507</v>
+        <v>0.04384630271840823</v>
       </c>
       <c r="C78">
-        <v>0.04226519555488625</v>
+        <v>0.05534645229933435</v>
       </c>
       <c r="D78">
-        <v>0.01956919500477091</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0728378366326328</v>
+      </c>
+      <c r="E78">
+        <v>-0.02395398492148402</v>
+      </c>
+      <c r="F78">
+        <v>-0.1035602888493631</v>
+      </c>
+      <c r="G78">
+        <v>-0.001389353753865311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02532689390083625</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03780248431264093</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06093055064994943</v>
+      </c>
+      <c r="E79">
+        <v>-0.05065769380075052</v>
+      </c>
+      <c r="F79">
+        <v>-0.0436341185135207</v>
+      </c>
+      <c r="G79">
+        <v>-0.06315728248637741</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04550604100667281</v>
+        <v>0.03490285992171559</v>
       </c>
       <c r="C80">
-        <v>0.05328637753035557</v>
+        <v>0.05511620391735572</v>
       </c>
       <c r="D80">
-        <v>0.03150640446301848</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04683532569769713</v>
+      </c>
+      <c r="E80">
+        <v>-0.01075877209696673</v>
+      </c>
+      <c r="F80">
+        <v>-0.03714709549833863</v>
+      </c>
+      <c r="G80">
+        <v>0.04707938521813803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1439310685508874</v>
+        <v>0.1413780099420907</v>
       </c>
       <c r="C81">
-        <v>0.06210568433703156</v>
+        <v>0.09484084423226558</v>
       </c>
       <c r="D81">
-        <v>-0.03810539860482366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0975617500820074</v>
+      </c>
+      <c r="E81">
+        <v>-0.07971398093083873</v>
+      </c>
+      <c r="F81">
+        <v>-0.02180603100357539</v>
+      </c>
+      <c r="G81">
+        <v>-0.05641257386499854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1575494682484317</v>
+        <v>0.201511697774085</v>
       </c>
       <c r="C82">
-        <v>0.050051901889125</v>
+        <v>0.1335660233433744</v>
       </c>
       <c r="D82">
-        <v>-0.1306944124715287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2286634979409265</v>
+      </c>
+      <c r="E82">
+        <v>-0.013768126024658</v>
+      </c>
+      <c r="F82">
+        <v>-0.08561988181061118</v>
+      </c>
+      <c r="G82">
+        <v>-0.03663656583750221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03232155011874496</v>
+        <v>0.02802531262942478</v>
       </c>
       <c r="C83">
-        <v>0.02097476891674464</v>
+        <v>0.04018030908671922</v>
       </c>
       <c r="D83">
-        <v>0.02379707509265626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03439294602607479</v>
+      </c>
+      <c r="E83">
+        <v>-0.008737866489087866</v>
+      </c>
+      <c r="F83">
+        <v>-0.04996982729921149</v>
+      </c>
+      <c r="G83">
+        <v>0.02113344279049031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2265491347072229</v>
+        <v>0.2056020151108089</v>
       </c>
       <c r="C85">
-        <v>0.09320650767759225</v>
+        <v>0.1191804974705556</v>
       </c>
       <c r="D85">
-        <v>-0.101307433996994</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1032234707059625</v>
+      </c>
+      <c r="E85">
+        <v>-0.002552531065513612</v>
+      </c>
+      <c r="F85">
+        <v>0.0172670846704475</v>
+      </c>
+      <c r="G85">
+        <v>-0.1319453401644845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01041343357066524</v>
+        <v>0.01182794482129439</v>
       </c>
       <c r="C86">
-        <v>0.03244712021584607</v>
+        <v>0.03124854037971226</v>
       </c>
       <c r="D86">
-        <v>0.03676322122343166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07068705600911689</v>
+      </c>
+      <c r="E86">
+        <v>-0.04329473513077702</v>
+      </c>
+      <c r="F86">
+        <v>-0.136655027153268</v>
+      </c>
+      <c r="G86">
+        <v>0.01245115725680975</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01998397897768698</v>
+        <v>0.02108215321956198</v>
       </c>
       <c r="C87">
-        <v>0.01688050356532265</v>
+        <v>0.02165372033476776</v>
       </c>
       <c r="D87">
-        <v>0.09369822791254581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09311342874323787</v>
+      </c>
+      <c r="E87">
+        <v>-0.09038560007325894</v>
+      </c>
+      <c r="F87">
+        <v>-0.09500355107206189</v>
+      </c>
+      <c r="G87">
+        <v>0.03820682404891675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1077968624952302</v>
+        <v>0.09184840991735622</v>
       </c>
       <c r="C88">
-        <v>0.06116739227340713</v>
+        <v>0.06208212520712442</v>
       </c>
       <c r="D88">
-        <v>-0.01938428208994456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01093156080568317</v>
+      </c>
+      <c r="E88">
+        <v>-0.0351648935857412</v>
+      </c>
+      <c r="F88">
+        <v>-0.07369170849267162</v>
+      </c>
+      <c r="G88">
+        <v>0.03023780322558315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1606252263458507</v>
+        <v>0.2194025684054879</v>
       </c>
       <c r="C89">
-        <v>-0.3851331509149866</v>
+        <v>-0.3820516747263251</v>
       </c>
       <c r="D89">
-        <v>-0.02763127761909804</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01199352388712232</v>
+      </c>
+      <c r="E89">
+        <v>-0.03793097331545474</v>
+      </c>
+      <c r="F89">
+        <v>-0.09596044009598013</v>
+      </c>
+      <c r="G89">
+        <v>0.06654186517381289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1554437265900752</v>
+        <v>0.1983991592855365</v>
       </c>
       <c r="C90">
-        <v>-0.3579397695487669</v>
+        <v>-0.3172306436870653</v>
       </c>
       <c r="D90">
-        <v>-0.01460729447163322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01186196490866944</v>
+      </c>
+      <c r="E90">
+        <v>-0.06727845237529272</v>
+      </c>
+      <c r="F90">
+        <v>-0.04763932405374976</v>
+      </c>
+      <c r="G90">
+        <v>0.01164347216642304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1938077109656455</v>
+        <v>0.1873824807711114</v>
       </c>
       <c r="C91">
-        <v>0.1031677786565187</v>
+        <v>0.1380884206235998</v>
       </c>
       <c r="D91">
-        <v>-0.06303581764370539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1067330709948995</v>
+      </c>
+      <c r="E91">
+        <v>-0.06377139923189647</v>
+      </c>
+      <c r="F91">
+        <v>-0.03643147417023548</v>
+      </c>
+      <c r="G91">
+        <v>-0.05782148920587683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1483392470032543</v>
+        <v>0.1796854218931484</v>
       </c>
       <c r="C92">
-        <v>-0.3052717948763657</v>
+        <v>-0.2838924314007966</v>
       </c>
       <c r="D92">
-        <v>-0.01165156046882672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0006216594397759338</v>
+      </c>
+      <c r="E92">
+        <v>-0.06933313883235123</v>
+      </c>
+      <c r="F92">
+        <v>-0.08080287905956704</v>
+      </c>
+      <c r="G92">
+        <v>0.01147450774430378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1798833097612167</v>
+        <v>0.2226060330213927</v>
       </c>
       <c r="C93">
-        <v>-0.3489050511385983</v>
+        <v>-0.3212181979369757</v>
       </c>
       <c r="D93">
-        <v>-0.009244487434292509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0004058141452838466</v>
+      </c>
+      <c r="E93">
+        <v>-0.05090274195298832</v>
+      </c>
+      <c r="F93">
+        <v>-0.04393588129220959</v>
+      </c>
+      <c r="G93">
+        <v>-0.02724710746232993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3325196555312927</v>
+        <v>0.3445089045561281</v>
       </c>
       <c r="C94">
-        <v>0.1353602976466373</v>
+        <v>0.1828911848259598</v>
       </c>
       <c r="D94">
-        <v>-0.2428673186785615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4768208108066884</v>
+      </c>
+      <c r="E94">
+        <v>-0.1419529664866523</v>
+      </c>
+      <c r="F94">
+        <v>0.443777978263506</v>
+      </c>
+      <c r="G94">
+        <v>0.3144036403717013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1024231711715813</v>
+        <v>0.08602346989849771</v>
       </c>
       <c r="C95">
-        <v>0.07858596370407314</v>
+        <v>0.06591885845587035</v>
       </c>
       <c r="D95">
-        <v>0.06793553883023482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1605276690604407</v>
+      </c>
+      <c r="E95">
+        <v>0.1217170543457631</v>
+      </c>
+      <c r="F95">
+        <v>-0.1703948393493195</v>
+      </c>
+      <c r="G95">
+        <v>0.8737537655853158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1981485249625545</v>
+        <v>0.1877853900623163</v>
       </c>
       <c r="C98">
-        <v>0.01549183748469806</v>
+        <v>0.0411473100928802</v>
       </c>
       <c r="D98">
-        <v>0.06837425982418019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1788906917156149</v>
+      </c>
+      <c r="E98">
+        <v>0.154405098861531</v>
+      </c>
+      <c r="F98">
+        <v>0.0452547557345841</v>
+      </c>
+      <c r="G98">
+        <v>-0.1008032445148046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009110411791325193</v>
+        <v>0.006079431916520515</v>
       </c>
       <c r="C101">
-        <v>0.02644395357938221</v>
+        <v>0.0270788722243982</v>
       </c>
       <c r="D101">
-        <v>-0.01719011562384153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02044135805471593</v>
+      </c>
+      <c r="E101">
+        <v>-0.02901402047587926</v>
+      </c>
+      <c r="F101">
+        <v>-0.08939430929310568</v>
+      </c>
+      <c r="G101">
+        <v>-0.001261477159387803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1266057072035369</v>
+        <v>0.1251869378653507</v>
       </c>
       <c r="C102">
-        <v>0.06607245250497604</v>
+        <v>0.09885953701373021</v>
       </c>
       <c r="D102">
-        <v>-0.03567893588119208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05031710140199874</v>
+      </c>
+      <c r="E102">
+        <v>0.008362472633901236</v>
+      </c>
+      <c r="F102">
+        <v>-0.03994758873710146</v>
+      </c>
+      <c r="G102">
+        <v>-0.02107859499724706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
